--- a/3_설계/4. 기본 구현/2. 서버/DAO_Table.xlsx
+++ b/3_설계/4. 기본 구현/2. 서버/DAO_Table.xlsx
@@ -16,12 +16,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="145">
   <si>
     <t>구분</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>개발자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -34,7 +38,499 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>기능 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>command name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참조 JSP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마을조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/action/village?todo=search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int customer_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;VillageVO&gt; villageList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>search.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 가입한 마을을 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마을등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/action/village?todo=registe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int customer_id, String village_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int insertVRNum, int insertVPNum
+(성공 1, 실패 0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마을을 생성하는 기능, 
+생성자 이장 권한 자동부여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마을수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/action/village?todo=modify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int village_id, String village_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int updateVNum (성공 1, 실패 0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마을 정보 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마을삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/action/village?todo=delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int village_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int deleteVNum (성공 1, 실패 0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마을을 삭제하는 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/action/village?todo=custsearch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String searchWord, int village_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;CustomerVO&gt; searchList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마을에 소속된 주민을 제외한 회원을 검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>custsearch.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주민초대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/action/village?todo=custinvite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int customer_id, int village_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int insertVPNum, int updateVNum
+(성공 1, 실패 0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마을을 초대한 주민이 수락했을 때</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주민보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/action/village?todo=custconfirm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;CustomerVO&gt; villageCustList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>custconfirm.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마을의 주민 보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/action/village?todo=custdelete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주민삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마을의 특정한 주민을 삭제할 때</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이장위임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leadertrust.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/action/village?todo=leadertrust</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int updateVRNum (성공 1, 실패 0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이장을 위임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박우람</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물품등록</t>
+  </si>
+  <si>
+    <t>createVillageProduct</t>
+  </si>
+  <si>
+    <t>/action/customer?todo=add</t>
+  </si>
+  <si>
+    <t>String product_name, byte[] product_picture,int customer_id,String detail_text_1,String detail_text_2, String detail_text_3, String detail_decription,int village_id</t>
+  </si>
+  <si>
+    <t>int result (성공1, 실패 0)</t>
+  </si>
+  <si>
+    <t>마을화면에서 물품등록</t>
+  </si>
+  <si>
+    <t>createProduct</t>
+  </si>
+  <si>
+    <t>String product_name, byte[] product_picture,int customer_id, String detail_text_1,String detail_text_2, String detail_text_3, String detail_decription</t>
+  </si>
+  <si>
+    <t>메인화면에서 물품등록</t>
+  </si>
+  <si>
+    <t>물품조회</t>
+  </si>
+  <si>
+    <t>findIDProdcuts</t>
+  </si>
+  <si>
+    <t>/action/customer?todo=find</t>
+  </si>
+  <si>
+    <t>int customer_id</t>
+  </si>
+  <si>
+    <t>List&lt;ProductVO&gt;</t>
+  </si>
+  <si>
+    <t>회원 아이디로 모든 물품찾기</t>
+  </si>
+  <si>
+    <t>findProductByVillageID</t>
+  </si>
+  <si>
+    <t>int village_id</t>
+  </si>
+  <si>
+    <t>마을 아이디로 모든 물품찾기</t>
+  </si>
+  <si>
+    <t>findProductByID</t>
+  </si>
+  <si>
+    <t>int product_id</t>
+  </si>
+  <si>
+    <t>ProductVO</t>
+  </si>
+  <si>
+    <t>물품 아이디로 물품찾기</t>
+  </si>
+  <si>
+    <t>findCategoryID</t>
+  </si>
+  <si>
+    <t>int category_id</t>
+  </si>
+  <si>
+    <t>CategoryVO</t>
+  </si>
+  <si>
+    <t>카테고리 아이디로 물품찾기</t>
+  </si>
+  <si>
+    <t>물품수정</t>
+  </si>
+  <si>
+    <t>updateProduct</t>
+  </si>
+  <si>
+    <t>/action/customer?todo=update</t>
+  </si>
+  <si>
+    <t>int product_id, String product_name, byte[] product_picture,String detail_field1,String detail_field2,String detail_field3,String detail_decription, int village_id</t>
+  </si>
+  <si>
+    <t>물품 수정</t>
+  </si>
+  <si>
+    <t>물품삭제</t>
+  </si>
+  <si>
+    <t>deleteProduct</t>
+  </si>
+  <si>
+    <t>/action/customer?todo=remove</t>
+  </si>
+  <si>
+    <t>물품 삭제</t>
+  </si>
+  <si>
+    <t>물품관리</t>
+  </si>
+  <si>
+    <t>홍기용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>회원관리</t>
+  </si>
+  <si>
+    <t>회원등록</t>
+  </si>
+  <si>
+    <t>String customerEmail, String customerName, String customerPassword, int customerConnection, int customerAutoLogin, String customerRegistry</t>
+  </si>
+  <si>
+    <t>int result (성공 1, 실패 0)</t>
+  </si>
+  <si>
+    <t>없음</t>
+  </si>
+  <si>
+    <t>회원가입</t>
+  </si>
+  <si>
+    <t>이영재</t>
+  </si>
+  <si>
+    <t>회원조회</t>
+  </si>
+  <si>
+    <t>int customerId</t>
+  </si>
+  <si>
+    <t>CustomerVO result(객체)</t>
+  </si>
+  <si>
+    <t>회원수정</t>
+  </si>
+  <si>
+    <t>int customerId, String customerName</t>
+  </si>
+  <si>
+    <t>회원정보 수정(이름, 패스워드)</t>
+  </si>
+  <si>
+    <t>회원삭제</t>
+  </si>
+  <si>
+    <t>회원정보 삭제</t>
+  </si>
+  <si>
+    <t>로그인</t>
+  </si>
+  <si>
+    <t>/action/customer/login</t>
+  </si>
+  <si>
+    <t>string customerPassword, String customerEmail, int customerConnection</t>
+  </si>
+  <si>
+    <t>PW찾기</t>
+  </si>
+  <si>
+    <t>/action/customer/findPassword</t>
+  </si>
+  <si>
+    <t>String customerEmail, String customerName</t>
+  </si>
+  <si>
+    <t>CustomerVO result.getcustomerPassword</t>
+  </si>
+  <si>
+    <t>비밀번호 찾기</t>
+  </si>
+  <si>
+    <t>공유관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공유등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SharingCommand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/action/sharing?todo=add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int returnCheck,int applicationID,String startDay,String endDay,int productID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sharingadd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이선민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공유조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/action/sharing?todo=find</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int applicationID,int productID, int sharingID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;SharingVO&gt;, SharingVO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sharingfind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공유수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/action/sharing?todo=update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int sharingID,String startDay,String endDay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sharingupdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공유수정(날짜변경)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공유삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/action/sharing?todo=remove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int sharingID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sharingremove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StartCommand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/action/sharing/start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int sharingID, int returnCheck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대여기간,반납,공유상태수정 등</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -42,47 +538,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>물품관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공유관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파일명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메서드명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MysqlCustomerDAO.java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>findCustomerByEmail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String customerEmail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이영재</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이메일을 통해 고객 정보 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CustomerVO</t>
+    <t>query string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -146,7 +602,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -219,13 +675,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -241,11 +710,26 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -256,9 +740,33 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -268,14 +776,20 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -578,329 +1092,714 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A3:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D13" sqref="D13:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="44.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="28" style="1" customWidth="1"/>
-    <col min="6" max="6" width="37.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="12.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="111.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="29.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.75" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="E4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="8" t="s">
+      <c r="I4" s="24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A5" s="25"/>
+      <c r="B5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="15"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="15"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="15"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="15"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="15"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="15"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="15"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="16"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="12"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="13"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="12"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="12"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="12"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="13"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="12"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="12"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="12"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="12"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="3"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="13"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="3"/>
+      <c r="F5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="25"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="25"/>
+      <c r="B6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="25"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="25"/>
+      <c r="B7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="25"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="25"/>
+      <c r="B8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="25"/>
+    </row>
+    <row r="9" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A9" s="25"/>
+      <c r="B9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="25"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="25"/>
+      <c r="B10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="25"/>
+    </row>
+    <row r="11" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A11" s="25"/>
+      <c r="B11" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" s="25"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="26"/>
+      <c r="B12" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" s="26"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="13"/>
+      <c r="H13" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" s="24" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="25"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="28"/>
+      <c r="E14" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="13"/>
+      <c r="H14" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="I14" s="25"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="25"/>
+      <c r="B15" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" s="13"/>
+      <c r="H15" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I15" s="25"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="25"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="30"/>
+      <c r="E16" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="13"/>
+      <c r="H16" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="I16" s="25"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="25"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="30"/>
+      <c r="E17" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="G17" s="13"/>
+      <c r="H17" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="I17" s="25"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="25"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="31"/>
+      <c r="E18" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18" s="13"/>
+      <c r="H18" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I18" s="25"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="25"/>
+      <c r="B19" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" s="13"/>
+      <c r="H19" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="I19" s="25"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="26"/>
+      <c r="B20" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" s="13"/>
+      <c r="H20" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="I20" s="26"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="I21" s="18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="25"/>
+      <c r="B22" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="I22" s="19"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="25"/>
+      <c r="B23" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="I23" s="19"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="25"/>
+      <c r="B24" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="I24" s="19"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="26"/>
+      <c r="B25" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="I25" s="20"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" s="14"/>
+      <c r="D26" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="I26" s="15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="25"/>
+      <c r="B27" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="14"/>
+      <c r="D27" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="I27" s="16"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="25"/>
+      <c r="B28" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" s="14"/>
+      <c r="D28" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="I28" s="16"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="25"/>
+      <c r="B29" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" s="14"/>
+      <c r="D29" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="I29" s="16"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="25"/>
+      <c r="B30" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I30" s="16"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="26"/>
+      <c r="B31" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C31" s="12"/>
+      <c r="D31" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="I31" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A25:A30"/>
-    <mergeCell ref="B3:B11"/>
-    <mergeCell ref="G3:G11"/>
-    <mergeCell ref="A3:A11"/>
-    <mergeCell ref="A12:A19"/>
-    <mergeCell ref="A20:A24"/>
+  <mergeCells count="8">
+    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="I13:I20"/>
+    <mergeCell ref="I4:I12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="A13:A20"/>
+    <mergeCell ref="A4:A12"/>
+    <mergeCell ref="A21:A25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
